--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643368.2232405699</v>
+        <v>-643962.0899518091</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>83.69827355632241</v>
       </c>
       <c r="D11" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124637</v>
+        <v>32.23475461124628</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>101.7754565731323</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.047422663360237</v>
+        <v>6.047422663360152</v>
       </c>
       <c r="W12" t="n">
-        <v>18.83846641623393</v>
+        <v>18.83846641623384</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754452</v>
+        <v>9.884882276754366</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177304</v>
+        <v>64.24262914177295</v>
       </c>
       <c r="V13" t="n">
-        <v>38.06370773437249</v>
+        <v>38.0637077343724</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498574</v>
+        <v>63.23059380498566</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788861</v>
+        <v>8.875695800788776</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="D14" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>131.6224207170394</v>
+        <v>2.38779046733942</v>
       </c>
       <c r="F14" t="n">
-        <v>115.9330281675682</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.047422663360152</v>
+        <v>6.04742266336018</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623384</v>
+        <v>18.83846641623387</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754366</v>
+        <v>9.884882276754395</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177295</v>
+        <v>64.24262914177298</v>
       </c>
       <c r="V16" t="n">
-        <v>38.0637077343724</v>
+        <v>38.06370773437243</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498566</v>
+        <v>63.23059380498569</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788776</v>
+        <v>8.875695800788804</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.692458542846989</v>
+        <v>3.692458542846509</v>
       </c>
       <c r="W20" t="n">
         <v>28.99255802080341</v>
@@ -2330,7 +2330,7 @@
         <v>80.09265596275981</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630232</v>
+        <v>81.55736574630231</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>159.9674638119631</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7096013818686</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F26" t="n">
         <v>200.8814174698458</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970362</v>
+        <v>10.93598234970365</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696094992</v>
+        <v>43.17073696094995</v>
       </c>
       <c r="V26" t="n">
         <v>124.4812200499325</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697960797</v>
+        <v>7.165089697960825</v>
       </c>
       <c r="V27" t="n">
-        <v>16.98340501306379</v>
+        <v>16.98340501306382</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593748</v>
+        <v>29.77444876593751</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.820864626458</v>
+        <v>20.82086462645803</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17861149147659</v>
+        <v>75.17861149147662</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407604</v>
+        <v>48.99969008407606</v>
       </c>
       <c r="W28" t="n">
-        <v>74.1665761546893</v>
+        <v>74.16657615468932</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049241</v>
+        <v>19.81167815049244</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.6865459065601</v>
+        <v>10.68654590656013</v>
       </c>
     </row>
     <row r="29">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970366</v>
+        <v>10.93598234970369</v>
       </c>
       <c r="U32" t="n">
         <v>43.17073696094997</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>139.3194838123382</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C38" t="n">
-        <v>127.3308007700199</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D38" t="n">
-        <v>118.3121048145479</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E38" t="n">
         <v>140.0542423844535</v>
       </c>
       <c r="F38" t="n">
-        <v>159.2260584724306</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G38" t="n">
-        <v>160.6907682559731</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438944</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534746</v>
+        <v>1.515377963534803</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251733</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W38" t="n">
-        <v>108.1259605304742</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X38" t="n">
-        <v>127.4262187632208</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y38" t="n">
-        <v>138.8228165594196</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="39">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406142</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086660873</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727413</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C41" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D41" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E41" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F41" t="n">
         <v>159.2260584724307</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438954</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534803</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W41" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X41" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y41" t="n">
         <v>138.8228165594197</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C44" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D44" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E44" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F44" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G44" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056438958</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.515377963534899</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251747</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W44" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X44" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y44" t="n">
         <v>138.8228165594197</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406157</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086661015</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727427</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.4336738938064</v>
+        <v>228.0254444385369</v>
       </c>
       <c r="C11" t="n">
-        <v>276.4336738938064</v>
+        <v>143.4817337755849</v>
       </c>
       <c r="D11" t="n">
-        <v>143.4817337755848</v>
+        <v>143.4817337755849</v>
       </c>
       <c r="E11" t="n">
-        <v>143.4817337755848</v>
+        <v>143.4817337755849</v>
       </c>
       <c r="F11" t="n">
-        <v>143.4817337755848</v>
+        <v>143.4817337755849</v>
       </c>
       <c r="G11" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H11" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I11" t="n">
-        <v>76.89870416677081</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J11" t="n">
-        <v>76.89870416677081</v>
+        <v>122.1351968056153</v>
       </c>
       <c r="K11" t="n">
-        <v>76.89870416677081</v>
+        <v>221.9703497841499</v>
       </c>
       <c r="L11" t="n">
-        <v>111.74413614159</v>
+        <v>221.9703497841499</v>
       </c>
       <c r="M11" t="n">
-        <v>111.74413614159</v>
+        <v>221.9703497841499</v>
       </c>
       <c r="N11" t="n">
-        <v>227.8435400355891</v>
+        <v>221.9703497841499</v>
       </c>
       <c r="O11" t="n">
-        <v>338.7791956503315</v>
+        <v>309.3969775158547</v>
       </c>
       <c r="P11" t="n">
-        <v>437.3502059646995</v>
+        <v>407.9679878302228</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.4896828681576</v>
+        <v>407.9679878302228</v>
       </c>
       <c r="R11" t="n">
-        <v>526.4896828681576</v>
+        <v>481.5587050619465</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="U11" t="n">
-        <v>493.9293246749795</v>
+        <v>493.92932467498</v>
       </c>
       <c r="V11" t="n">
-        <v>379.2371653818189</v>
+        <v>493.92932467498</v>
       </c>
       <c r="W11" t="n">
-        <v>276.4336738938064</v>
+        <v>360.9773845567582</v>
       </c>
       <c r="X11" t="n">
-        <v>276.4336738938064</v>
+        <v>228.0254444385369</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.4336738938064</v>
+        <v>228.0254444385369</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392292</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392292</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="V12" t="n">
-        <v>29.558547613155</v>
+        <v>29.55854761315492</v>
       </c>
       <c r="W12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G13" t="n">
-        <v>10.52979365736315</v>
+        <v>63.04322649795971</v>
       </c>
       <c r="H13" t="n">
-        <v>10.52979365736315</v>
+        <v>63.04322649795971</v>
       </c>
       <c r="I13" t="n">
-        <v>10.52979365736315</v>
+        <v>63.04322649795971</v>
       </c>
       <c r="J13" t="n">
-        <v>10.52979365736315</v>
+        <v>63.04322649795971</v>
       </c>
       <c r="K13" t="n">
-        <v>10.52979365736315</v>
+        <v>63.04322649795971</v>
       </c>
       <c r="L13" t="n">
-        <v>140.8359901672322</v>
+        <v>63.04322649795971</v>
       </c>
       <c r="M13" t="n">
-        <v>140.8359901672322</v>
+        <v>193.3494230078288</v>
       </c>
       <c r="N13" t="n">
-        <v>140.8359901672322</v>
+        <v>193.3494230078288</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8359901672322</v>
+        <v>193.3494230078288</v>
       </c>
       <c r="P13" t="n">
-        <v>140.8359901672322</v>
+        <v>193.3494230078288</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.6888934136001</v>
+        <v>193.3494230078288</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934136001</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934136001</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411209</v>
+        <v>186.7041638411205</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534713</v>
+        <v>121.8126192534711</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279204</v>
+        <v>83.36442962279189</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108927</v>
+        <v>19.4951429510892</v>
       </c>
       <c r="X13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.537742749936</v>
+        <v>145.893643338554</v>
       </c>
       <c r="C14" t="n">
-        <v>393.537742749936</v>
+        <v>12.94170322033227</v>
       </c>
       <c r="D14" t="n">
-        <v>260.5858026317143</v>
+        <v>12.94170322033227</v>
       </c>
       <c r="E14" t="n">
-        <v>127.6338625134927</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F14" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G14" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H14" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I14" t="n">
-        <v>76.8987041667709</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J14" t="n">
-        <v>76.8987041667709</v>
+        <v>122.1351968056153</v>
       </c>
       <c r="K14" t="n">
-        <v>76.8987041667709</v>
+        <v>221.9703497841499</v>
       </c>
       <c r="L14" t="n">
-        <v>76.8987041667709</v>
+        <v>221.9703497841499</v>
       </c>
       <c r="M14" t="n">
-        <v>190.9295119054395</v>
+        <v>336.0011575228184</v>
       </c>
       <c r="N14" t="n">
-        <v>307.0289157994388</v>
+        <v>452.1005614168176</v>
       </c>
       <c r="O14" t="n">
-        <v>318.8285109267641</v>
+        <v>452.1005614168176</v>
       </c>
       <c r="P14" t="n">
-        <v>318.8285109267641</v>
+        <v>481.5587050619466</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.9679878302223</v>
+        <v>481.5587050619466</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619461</v>
+        <v>481.5587050619466</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="U14" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="V14" t="n">
-        <v>526.4896828681576</v>
+        <v>411.7975235749976</v>
       </c>
       <c r="W14" t="n">
-        <v>526.4896828681576</v>
+        <v>278.8455834567758</v>
       </c>
       <c r="X14" t="n">
-        <v>526.4896828681576</v>
+        <v>145.893643338554</v>
       </c>
       <c r="Y14" t="n">
-        <v>526.4896828681576</v>
+        <v>145.893643338554</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="G15" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="H15" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="I15" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="J15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="K15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392275</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315491</v>
+        <v>29.55854761315495</v>
       </c>
       <c r="W15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="K16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="L16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="M16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="N16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="O16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="P16" t="n">
-        <v>116.015680372653</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.015680372653</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="R16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="T16" t="n">
-        <v>186.7041638411205</v>
+        <v>186.7041638411206</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8126192534711</v>
+        <v>121.8126192534712</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279187</v>
+        <v>83.36442962279195</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108919</v>
+        <v>19.49514295108923</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018779</v>
+        <v>323.607533201879</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348585</v>
+        <v>274.9232925348596</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622557</v>
+        <v>235.3488457622564</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685358</v>
+        <v>173.8126438685366</v>
       </c>
       <c r="F17" t="n">
         <v>92.91097117888064</v>
       </c>
       <c r="G17" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H17" t="n">
         <v>15.70014978319173</v>
@@ -5513,52 +5513,52 @@
         <v>15.70014978319173</v>
       </c>
       <c r="J17" t="n">
-        <v>15.70014978319173</v>
+        <v>146.0063462930609</v>
       </c>
       <c r="K17" t="n">
-        <v>26.81684197274211</v>
+        <v>146.0063462930609</v>
       </c>
       <c r="L17" t="n">
-        <v>26.81684197274211</v>
+        <v>146.0063462930609</v>
       </c>
       <c r="M17" t="n">
-        <v>26.81684197274211</v>
+        <v>146.0063462930609</v>
       </c>
       <c r="N17" t="n">
-        <v>157.1230384826111</v>
+        <v>146.0063462930609</v>
       </c>
       <c r="O17" t="n">
-        <v>287.4292349924801</v>
+        <v>276.31254280293</v>
       </c>
       <c r="P17" t="n">
-        <v>287.4292349924801</v>
+        <v>396.183486358289</v>
       </c>
       <c r="Q17" t="n">
-        <v>417.7354315023491</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="R17" t="n">
-        <v>417.7354315023491</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="S17" t="n">
-        <v>417.7354315023491</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="T17" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642718</v>
+        <v>522.7599267642727</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220459</v>
+        <v>493.474514622047</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437126</v>
+        <v>444.6938921437136</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197238</v>
+        <v>384.4015547197249</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018787</v>
+        <v>323.6075332018793</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348593</v>
+        <v>274.9232925348601</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622561</v>
+        <v>235.3488457622566</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685363</v>
+        <v>173.8126438685367</v>
       </c>
       <c r="F20" t="n">
         <v>92.91097117888064</v>
       </c>
       <c r="G20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M20" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N20" t="n">
-        <v>140.8359901672322</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O20" t="n">
-        <v>140.8359901672322</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P20" t="n">
-        <v>140.8359901672322</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.1421866771012</v>
+        <v>271.1421866771014</v>
       </c>
       <c r="R20" t="n">
-        <v>271.1421866771012</v>
+        <v>401.4483831869705</v>
       </c>
       <c r="S20" t="n">
-        <v>340.8935872016744</v>
+        <v>401.4483831869705</v>
       </c>
       <c r="T20" t="n">
-        <v>449.6478385674829</v>
+        <v>449.6478385674834</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681576</v>
+        <v>526.4896828681581</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642723</v>
+        <v>522.7599267642729</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220466</v>
+        <v>493.4745146220472</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6938921437132</v>
+        <v>444.6938921437138</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.4015547197245</v>
+        <v>384.401554719725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018793</v>
+        <v>323.6075332018791</v>
       </c>
       <c r="C23" t="n">
-        <v>274.92329253486</v>
+        <v>274.9232925348597</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622569</v>
+        <v>235.3488457622565</v>
       </c>
       <c r="E23" t="n">
-        <v>173.812643868537</v>
+        <v>173.8126438685367</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888066</v>
+        <v>92.91097117888064</v>
       </c>
       <c r="G23" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H23" t="n">
-        <v>10.52979365736315</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="I23" t="n">
-        <v>10.52979365736315</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="J23" t="n">
-        <v>10.52979365736315</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="K23" t="n">
-        <v>10.52979365736315</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="L23" t="n">
-        <v>10.52979365736315</v>
+        <v>189.035445547745</v>
       </c>
       <c r="M23" t="n">
-        <v>10.52979365736315</v>
+        <v>189.035445547745</v>
       </c>
       <c r="N23" t="n">
-        <v>10.52979365736315</v>
+        <v>189.035445547745</v>
       </c>
       <c r="O23" t="n">
-        <v>140.8359901672322</v>
+        <v>319.3416420576141</v>
       </c>
       <c r="P23" t="n">
-        <v>140.8359901672322</v>
+        <v>319.3416420576141</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.1421866771012</v>
+        <v>319.3416420576141</v>
       </c>
       <c r="R23" t="n">
-        <v>271.1421866771012</v>
+        <v>449.6478385674832</v>
       </c>
       <c r="S23" t="n">
-        <v>401.4483831869702</v>
+        <v>449.6478385674832</v>
       </c>
       <c r="T23" t="n">
-        <v>510.2026345527787</v>
+        <v>449.6478385674832</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681583</v>
+        <v>526.4896828681578</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642729</v>
+        <v>522.7599267642724</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220473</v>
+        <v>493.4745146220467</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437139</v>
+        <v>444.6938921437133</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197252</v>
+        <v>384.4015547197246</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.52979365736315</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y25" t="n">
-        <v>526.4896828681576</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929848</v>
+        <v>908.0896616929844</v>
       </c>
       <c r="D26" t="n">
-        <v>746.506364913224</v>
+        <v>746.5063649132236</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123466</v>
+        <v>562.9613130123462</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155326</v>
+        <v>360.0507903155323</v>
       </c>
       <c r="G26" t="n">
         <v>155.660762786857</v>
@@ -6221,34 +6221,34 @@
         <v>38.92724807796343</v>
       </c>
       <c r="I26" t="n">
-        <v>38.92724807796343</v>
+        <v>94.46953606116455</v>
       </c>
       <c r="J26" t="n">
-        <v>139.706028700009</v>
+        <v>195.2483166832101</v>
       </c>
       <c r="K26" t="n">
-        <v>621.4307236648065</v>
+        <v>195.2483166832101</v>
       </c>
       <c r="L26" t="n">
-        <v>841.8344002910533</v>
+        <v>195.2483166832101</v>
       </c>
       <c r="M26" t="n">
-        <v>945.0385855035153</v>
+        <v>676.9730116480075</v>
       </c>
       <c r="N26" t="n">
-        <v>1050.311366871308</v>
+        <v>1158.697706612805</v>
       </c>
       <c r="O26" t="n">
-        <v>1532.036061836105</v>
+        <v>1158.697706612805</v>
       </c>
       <c r="P26" t="n">
-        <v>1532.036061836105</v>
+        <v>1640.422401577602</v>
       </c>
       <c r="Q26" t="n">
-        <v>1883.598309192654</v>
+        <v>1764.916921536121</v>
       </c>
       <c r="R26" t="n">
-        <v>1946.362403898172</v>
+        <v>1912.258048618167</v>
       </c>
       <c r="S26" t="n">
         <v>1946.362403898172</v>
@@ -6257,13 +6257,13 @@
         <v>1935.315957080289</v>
       </c>
       <c r="U26" t="n">
-        <v>1891.709152069229</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958185</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X26" t="n">
         <v>1443.886811323311</v>
@@ -6303,43 +6303,43 @@
         <v>38.92724807796343</v>
       </c>
       <c r="J27" t="n">
-        <v>38.92724807796343</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="K27" t="n">
-        <v>38.92724807796343</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="L27" t="n">
-        <v>38.92724807796343</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="M27" t="n">
-        <v>38.92724807796343</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="N27" t="n">
-        <v>38.92724807796343</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="O27" t="n">
-        <v>38.92724807796343</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166249</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166249</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166249</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166249</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166249</v>
+        <v>93.39486775166257</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028794</v>
+        <v>86.157403410288</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163765</v>
+        <v>69.00244885163768</v>
       </c>
       <c r="W27" t="n">
         <v>38.92724807796343</v>
@@ -6370,61 +6370,61 @@
         <v>38.92724807796343</v>
       </c>
       <c r="F28" t="n">
-        <v>96.5179368376823</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G28" t="n">
-        <v>138.2047471520723</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H28" t="n">
-        <v>138.2047471520723</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I28" t="n">
-        <v>138.2047471520723</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J28" t="n">
-        <v>138.2047471520723</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K28" t="n">
-        <v>138.2047471520723</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L28" t="n">
-        <v>138.2047471520723</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M28" t="n">
-        <v>153.7354006237156</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N28" t="n">
-        <v>289.9068133957377</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="O28" t="n">
-        <v>289.9068133957377</v>
+        <v>169.6950598580574</v>
       </c>
       <c r="P28" t="n">
-        <v>289.9068133957377</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="Q28" t="n">
-        <v>289.9068133957377</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="R28" t="n">
-        <v>289.9068133957377</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383195</v>
+        <v>291.1130727383196</v>
       </c>
       <c r="T28" t="n">
-        <v>270.0818963479579</v>
+        <v>270.081896347958</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424259</v>
+        <v>194.143904942426</v>
       </c>
       <c r="V28" t="n">
         <v>144.6492684938643</v>
       </c>
       <c r="W28" t="n">
-        <v>69.7335350042791</v>
+        <v>69.73353500427916</v>
       </c>
       <c r="X28" t="n">
-        <v>49.7217388926706</v>
+        <v>49.72173889267063</v>
       </c>
       <c r="Y28" t="n">
         <v>38.92724807796343</v>
@@ -6461,28 +6461,28 @@
         <v>94.46953606116455</v>
       </c>
       <c r="J29" t="n">
-        <v>412.875660409669</v>
+        <v>172.9052720396008</v>
       </c>
       <c r="K29" t="n">
-        <v>803.89009160813</v>
+        <v>261.9138024919288</v>
       </c>
       <c r="L29" t="n">
-        <v>894.4850249771596</v>
+        <v>683.0017402874333</v>
       </c>
       <c r="M29" t="n">
-        <v>1376.209719941957</v>
+        <v>1164.726435252231</v>
       </c>
       <c r="N29" t="n">
-        <v>1376.209719941957</v>
+        <v>1269.999216620023</v>
       </c>
       <c r="O29" t="n">
-        <v>1476.318753030493</v>
+        <v>1370.108249708559</v>
       </c>
       <c r="P29" t="n">
-        <v>1771.181099535398</v>
+        <v>1833.945194240915</v>
       </c>
       <c r="Q29" t="n">
-        <v>1849.493953912649</v>
+        <v>1912.258048618167</v>
       </c>
       <c r="R29" t="n">
         <v>1912.258048618167</v>
@@ -6503,7 +6503,7 @@
         <v>1614.676283808803</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323311</v>
+        <v>1443.886811323312</v>
       </c>
       <c r="Y29" t="n">
         <v>1261.585623892165</v>
@@ -6543,31 +6543,31 @@
         <v>38.92724807796343</v>
       </c>
       <c r="K30" t="n">
-        <v>93.39486775166257</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="M30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="N30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="O30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="P30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166257</v>
+        <v>70.28776459465874</v>
       </c>
       <c r="T30" t="n">
         <v>93.39486775166257</v>
@@ -6619,31 +6619,31 @@
         <v>38.92724807796343</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5233461481479</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K31" t="n">
-        <v>158.5233461481479</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L31" t="n">
-        <v>287.9978754276909</v>
+        <v>162.0012076027103</v>
       </c>
       <c r="M31" t="n">
-        <v>287.9978754276909</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="N31" t="n">
-        <v>291.1130727383196</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="O31" t="n">
-        <v>291.1130727383196</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="P31" t="n">
-        <v>291.1130727383196</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383196</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383196</v>
+        <v>289.9068133957379</v>
       </c>
       <c r="S31" t="n">
         <v>291.1130727383196</v>
@@ -6695,25 +6695,25 @@
         <v>38.92724807796343</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116452</v>
+        <v>50.29681811810585</v>
       </c>
       <c r="J32" t="n">
-        <v>412.875660409669</v>
+        <v>368.7029424666104</v>
       </c>
       <c r="K32" t="n">
-        <v>531.1531779278342</v>
+        <v>850.4276374314078</v>
       </c>
       <c r="L32" t="n">
-        <v>621.7481112968637</v>
+        <v>850.4276374314078</v>
       </c>
       <c r="M32" t="n">
-        <v>1096.439235414646</v>
+        <v>953.6318226438697</v>
       </c>
       <c r="N32" t="n">
-        <v>1201.712016782439</v>
+        <v>1058.904604011662</v>
       </c>
       <c r="O32" t="n">
-        <v>1683.436711747236</v>
+        <v>1289.4564045706</v>
       </c>
       <c r="P32" t="n">
         <v>1771.181099535398</v>
@@ -6795,7 +6795,7 @@
         <v>38.92724807796343</v>
       </c>
       <c r="P33" t="n">
-        <v>93.39486775166266</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Q33" t="n">
         <v>93.39486775166266</v>
@@ -6850,37 +6850,37 @@
         <v>38.92724807796343</v>
       </c>
       <c r="H34" t="n">
-        <v>38.92724807796343</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="I34" t="n">
-        <v>110.8882733190885</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="J34" t="n">
-        <v>110.8882733190885</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="K34" t="n">
-        <v>110.8882733190885</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="L34" t="n">
-        <v>110.8882733190885</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="M34" t="n">
-        <v>110.8882733190885</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="N34" t="n">
-        <v>110.8882733190885</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="O34" t="n">
-        <v>235.9650472148135</v>
+        <v>65.89502533078114</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383198</v>
+        <v>187.3130382110432</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383198</v>
+        <v>289.9068133957381</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383198</v>
+        <v>289.9068133957381</v>
       </c>
       <c r="S34" t="n">
         <v>291.1130727383198</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133422</v>
+        <v>815.796237513342</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385746</v>
+        <v>687.1792670385744</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582234</v>
+        <v>567.6720904582229</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567547</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593504</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G35" t="n">
         <v>103.0548489300846</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I35" t="n">
         <v>125.1785478112424</v>
@@ -6938,22 +6938,22 @@
         <v>267.1961338407289</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004979</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769671</v>
+        <v>529.2772084769683</v>
       </c>
       <c r="M35" t="n">
-        <v>673.72019909687</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721036</v>
+        <v>820.2317858721049</v>
       </c>
       <c r="O35" t="n">
-        <v>961.5796243680804</v>
+        <v>961.5796243680816</v>
       </c>
       <c r="P35" t="n">
-        <v>1090.562817563683</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q35" t="n">
         <v>1210.114477348375</v>
@@ -6962,7 +6962,7 @@
         <v>1314.117377461333</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T35" t="n">
         <v>1419.872721030014</v>
@@ -6977,10 +6977,10 @@
         <v>1225.461408356755</v>
       </c>
       <c r="X35" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389365</v>
+        <v>956.5229888389363</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="J36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="L36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="M36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="N36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="O36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="P36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="R36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="S36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="T36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="U36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="V36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="W36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39745442060028</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39745442060028</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="I37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="J37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660514</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="T37" t="n">
         <v>102.5174551660514</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992869</v>
+        <v>68.65558395992868</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077623</v>
+        <v>61.23706771077622</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133427</v>
+        <v>815.7962375133418</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385742</v>
       </c>
       <c r="D38" t="n">
-        <v>567.6720904582237</v>
+        <v>567.6720904582229</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567556</v>
+        <v>426.2031587567547</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593509</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G38" t="n">
         <v>103.0548489300846</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I38" t="n">
         <v>125.1785478112424</v>
       </c>
       <c r="J38" t="n">
-        <v>267.196133840729</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K38" t="n">
-        <v>397.443469700498</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769686</v>
+        <v>529.2772084769683</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968715</v>
+        <v>673.7201990968699</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721051</v>
+        <v>820.2317858721035</v>
       </c>
       <c r="O38" t="n">
-        <v>961.57962436808</v>
+        <v>961.5796243680802</v>
       </c>
       <c r="P38" t="n">
         <v>1090.562817563683</v>
@@ -7199,13 +7199,13 @@
         <v>1314.117377461333</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T38" t="n">
         <v>1419.872721030014</v>
       </c>
       <c r="U38" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V38" t="n">
         <v>1334.679550306729</v>
@@ -7214,10 +7214,10 @@
         <v>1225.461408356755</v>
       </c>
       <c r="X38" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389367</v>
+        <v>956.522988838936</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="M39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="R39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="T39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="U39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="V39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="W39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39745442060028</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39745442060028</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39745442060028</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="L40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="M40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="N40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660512</v>
+        <v>81.89130573880385</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660512</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992858</v>
+        <v>68.65558395992868</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077617</v>
+        <v>61.23706771077622</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133421</v>
+        <v>815.796237513342</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385744</v>
+        <v>687.1792670385743</v>
       </c>
       <c r="D41" t="n">
         <v>567.6720904582228</v>
@@ -7400,49 +7400,49 @@
         <v>265.3687562593498</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1785478112425</v>
+        <v>125.1785478112423</v>
       </c>
       <c r="J41" t="n">
-        <v>267.196133840729</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004979</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769682</v>
       </c>
       <c r="M41" t="n">
         <v>673.7201990968712</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721045</v>
+        <v>820.2317858721048</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680812</v>
+        <v>961.5796243680815</v>
       </c>
       <c r="P41" t="n">
-        <v>1090.562817563684</v>
+        <v>1090.562817563683</v>
       </c>
       <c r="Q41" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348375</v>
       </c>
       <c r="R41" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461333</v>
       </c>
       <c r="S41" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T41" t="n">
         <v>1419.872721030014</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V41" t="n">
         <v>1334.679550306729</v>
@@ -7451,10 +7451,10 @@
         <v>1225.461408356755</v>
       </c>
       <c r="X41" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389364</v>
+        <v>956.5229888389363</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="M42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="P42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="R42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="T42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="U42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="V42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="W42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5174551660516</v>
+        <v>60.07239041602868</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.5174551660516</v>
+        <v>60.07239041602868</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660516</v>
+        <v>60.07239041602868</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U43" t="n">
-        <v>68.6555839599288</v>
+        <v>68.65558395992868</v>
       </c>
       <c r="V43" t="n">
-        <v>61.23706771077629</v>
+        <v>61.23706771077622</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133416</v>
+        <v>815.796237513342</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385739</v>
+        <v>687.1792670385744</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582226</v>
+        <v>567.672090458223</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567543</v>
+        <v>426.2031587567547</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593495</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I44" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112424</v>
       </c>
       <c r="J44" t="n">
-        <v>267.1961338407286</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004975</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L44" t="n">
-        <v>529.277208476968</v>
+        <v>529.2772084769683</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968708</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N44" t="n">
-        <v>820.2317858721043</v>
+        <v>820.2317858721049</v>
       </c>
       <c r="O44" t="n">
-        <v>961.579624368081</v>
+        <v>961.5796243680802</v>
       </c>
       <c r="P44" t="n">
         <v>1090.562817563683</v>
       </c>
       <c r="Q44" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348375</v>
       </c>
       <c r="R44" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461333</v>
       </c>
       <c r="S44" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T44" t="n">
         <v>1419.872721030014</v>
@@ -7691,7 +7691,7 @@
         <v>1096.748056070673</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389358</v>
+        <v>956.5229888389363</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="F46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="G46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="H46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="I46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="J46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="K46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="L46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="M46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="N46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="O46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="P46" t="n">
-        <v>81.89130573880422</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.89130573880422</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="R46" t="n">
-        <v>81.89130573880422</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="S46" t="n">
-        <v>81.89130573880422</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65558395992886</v>
+        <v>68.65558395992868</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23706771077632</v>
+        <v>61.23706771077622</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060027</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>396.6829944570399</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>131.1199426840578</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>382.3439492447833</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>380.2544581787928</v>
       </c>
       <c r="O26" t="n">
-        <v>385.4703655315774</v>
+        <v>2.772378579329967</v>
       </c>
       <c r="P26" t="n">
-        <v>87.18391406109156</v>
+        <v>397.9599062390262</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>46.6481470517851</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M28" t="n">
-        <v>95.61820846320236</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083805</v>
+        <v>5.748523115524236</v>
       </c>
       <c r="P28" t="n">
-        <v>86.48380385827529</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>305.0564654001344</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M29" t="n">
         <v>382.3439492447833</v>
       </c>
       <c r="N29" t="n">
-        <v>24.42396074124055</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>418.3383206229274</v>
+        <v>379.8914714587823</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10276,19 +10276,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>79.93067970396669</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>82.78808566083805</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>29.56463339983567</v>
+        <v>396.6829944570399</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>584.3675935406823</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>476.9614033047822</v>
+        <v>340.8886324953102</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>397.9599062390263</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839743</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N34" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.0388604600498</v>
+        <v>170.0388604600497</v>
       </c>
       <c r="C11" t="n">
-        <v>158.0501774177316</v>
+        <v>74.35190386140907</v>
       </c>
       <c r="D11" t="n">
-        <v>17.40906074522013</v>
+        <v>149.0314814622594</v>
       </c>
       <c r="E11" t="n">
-        <v>170.7736190321651</v>
+        <v>170.773619032165</v>
       </c>
       <c r="F11" t="n">
         <v>189.9454351201422</v>
       </c>
       <c r="G11" t="n">
-        <v>59.78772418664533</v>
+        <v>59.78772418664514</v>
       </c>
       <c r="H11" t="n">
         <v>104.630197212101</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W11" t="n">
-        <v>37.06988060505353</v>
+        <v>7.222916461146241</v>
       </c>
       <c r="X11" t="n">
-        <v>158.1455954109325</v>
+        <v>26.52317469389286</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.5421932071312</v>
+        <v>169.5421932071311</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.41643974301033</v>
+        <v>170.0388604600498</v>
       </c>
       <c r="C14" t="n">
-        <v>158.0501774177315</v>
+        <v>26.42775670069199</v>
       </c>
       <c r="D14" t="n">
-        <v>17.40906074522005</v>
+        <v>149.0314814622595</v>
       </c>
       <c r="E14" t="n">
-        <v>39.15119831512558</v>
+        <v>168.3858285648256</v>
       </c>
       <c r="F14" t="n">
-        <v>74.01240695257391</v>
+        <v>189.9454351201422</v>
       </c>
       <c r="G14" t="n">
         <v>191.4101449036847</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.23475461124627</v>
+        <v>32.2347546112463</v>
       </c>
       <c r="V14" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.8453371781858</v>
+        <v>7.222916461146269</v>
       </c>
       <c r="X14" t="n">
-        <v>158.1455954109324</v>
+        <v>26.52317469389288</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.5421932071311</v>
+        <v>169.5421932071312</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-4.796163466380676e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921148.8725930182</v>
+        <v>921148.872593018</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>992025.759474562</v>
+        <v>992025.7594745621</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>921148.872593018</v>
+        <v>921148.8725930179</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>421232.1473290173</v>
       </c>
       <c r="D2" t="n">
-        <v>421232.1473290173</v>
+        <v>421232.1473290172</v>
       </c>
       <c r="E2" t="n">
+        <v>368107.7389658717</v>
+      </c>
+      <c r="F2" t="n">
         <v>368107.7389658716</v>
-      </c>
-      <c r="F2" t="n">
-        <v>368107.7389658717</v>
       </c>
       <c r="G2" t="n">
         <v>422193.2332717997</v>
       </c>
       <c r="H2" t="n">
-        <v>422193.2332717997</v>
+        <v>422193.2332717999</v>
       </c>
       <c r="I2" t="n">
-        <v>422193.2332717997</v>
+        <v>422193.2332717999</v>
       </c>
       <c r="J2" t="n">
-        <v>422193.2332718003</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="K2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="L2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718002</v>
       </c>
       <c r="M2" t="n">
+        <v>422193.2332717999</v>
+      </c>
+      <c r="N2" t="n">
         <v>422193.2332718</v>
-      </c>
-      <c r="N2" t="n">
-        <v>422193.2332718001</v>
       </c>
       <c r="O2" t="n">
         <v>422193.2332717997</v>
       </c>
       <c r="P2" t="n">
-        <v>422193.2332717999</v>
+        <v>422193.2332718</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>308990.6514115118</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590587</v>
+        <v>87882.2233259059</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>172295.6802798568</v>
       </c>
       <c r="K3" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590586</v>
+        <v>87882.22332590587</v>
       </c>
       <c r="M3" t="n">
         <v>33324.28719793213</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456239</v>
+        <v>79420.38572456255</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26451,10 +26451,10 @@
         <v>398950.3342181894</v>
       </c>
       <c r="N4" t="n">
+        <v>398950.3342181894</v>
+      </c>
+      <c r="O4" t="n">
         <v>398950.3342181895</v>
-      </c>
-      <c r="O4" t="n">
-        <v>398950.3342181894</v>
       </c>
       <c r="P4" t="n">
         <v>398950.3342181894</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29044.09759212583</v>
+        <v>29044.09759212585</v>
       </c>
       <c r="F5" t="n">
         <v>29044.09759212584</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310781</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310781</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="I5" t="n">
-        <v>38279.31088310781</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162481</v>
       </c>
       <c r="K5" t="n">
         <v>49706.78585162481</v>
@@ -26500,10 +26500,10 @@
         <v>49706.78585162481</v>
       </c>
       <c r="M5" t="n">
-        <v>45206.06704758251</v>
+        <v>45206.0670475825</v>
       </c>
       <c r="N5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.0670475825</v>
       </c>
       <c r="O5" t="n">
         <v>45206.0670475825</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49532.6178824169</v>
+        <v>-49536.98645488409</v>
       </c>
       <c r="C6" t="n">
-        <v>-49532.61788241684</v>
+        <v>-49536.98645488403</v>
       </c>
       <c r="D6" t="n">
-        <v>-49532.61788241684</v>
+        <v>-49536.98645488415</v>
       </c>
       <c r="E6" t="n">
-        <v>-311893.2827270604</v>
+        <v>-312139.1258829964</v>
       </c>
       <c r="F6" t="n">
-        <v>-2902.631315548515</v>
+        <v>-3148.47447148473</v>
       </c>
       <c r="G6" t="n">
-        <v>-101990.3735878368</v>
+        <v>-101990.3735878369</v>
       </c>
       <c r="H6" t="n">
-        <v>-14108.15026193087</v>
+        <v>-14108.15026193071</v>
       </c>
       <c r="I6" t="n">
-        <v>-14108.15026193093</v>
+        <v>-14108.15026193071</v>
       </c>
       <c r="J6" t="n">
-        <v>-205528.6739497149</v>
+        <v>-205528.6739497146</v>
       </c>
       <c r="K6" t="n">
-        <v>-33232.99366985804</v>
+        <v>-33232.99366985787</v>
       </c>
       <c r="L6" t="n">
-        <v>-121115.2169957639</v>
+        <v>-121115.2169957641</v>
       </c>
       <c r="M6" t="n">
-        <v>-55287.45519190396</v>
+        <v>-55287.45519190418</v>
       </c>
       <c r="N6" t="n">
-        <v>-21963.16799397195</v>
+        <v>-21963.16799397193</v>
       </c>
       <c r="O6" t="n">
-        <v>-101383.5537185346</v>
+        <v>-101383.5537185348</v>
       </c>
       <c r="P6" t="n">
-        <v>-21963.16799397199</v>
+        <v>-21963.16799397182</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
         <v>220.0642436627892</v>
@@ -26707,7 +26707,7 @@
         <v>329.9170228201716</v>
       </c>
       <c r="J2" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K2" t="n">
         <v>209.1282613130855</v>
@@ -26722,10 +26722,10 @@
         <v>250.7836203105007</v>
       </c>
       <c r="O2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="J4" t="n">
         <v>486.5906009745429</v>
@@ -26820,16 +26820,16 @@
         <v>486.5906009745429</v>
       </c>
       <c r="M4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575034</v>
       </c>
       <c r="N4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575034</v>
       </c>
       <c r="O4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575034</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575034</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.27548215570314</v>
+        <v>99.2754821557032</v>
       </c>
       <c r="K2" t="n">
-        <v>1.818989403545856e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>109.8527791573823</v>
@@ -26941,10 +26941,10 @@
         <v>41.65535899741516</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.275482155703</v>
+        <v>99.2754821557032</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575034</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570314</v>
+        <v>99.2754821557032</v>
       </c>
       <c r="P2" t="n">
-        <v>1.818989403545856e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="C11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="D11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="E11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="F11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="G11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="H11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
-        <v>220.0642436627891</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J11" t="n">
-        <v>107.3315132100092</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="K11" t="n">
-        <v>119.2206547955825</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="L11" t="n">
-        <v>152.8156336421659</v>
+        <v>117.6182276069951</v>
       </c>
       <c r="M11" t="n">
         <v>104.881609583326</v>
       </c>
       <c r="N11" t="n">
-        <v>220.0642436627891</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O11" t="n">
-        <v>220.0642436627891</v>
+        <v>196.3177508516401</v>
       </c>
       <c r="P11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.0642436627891</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R11" t="n">
-        <v>145.7301858529672</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="S11" t="n">
-        <v>174.6794175959089</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="V11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="W11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="X11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
     </row>
     <row r="12">
@@ -28193,22 +28193,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K12" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q12" t="n">
         <v>81.73346793160957</v>
@@ -28217,19 +28217,19 @@
         <v>102.7991627330203</v>
       </c>
       <c r="S12" t="n">
-        <v>146.6148367064899</v>
+        <v>172.0060101373581</v>
       </c>
       <c r="T12" t="n">
-        <v>211.1789265045562</v>
+        <v>185.7877530736877</v>
       </c>
       <c r="U12" t="n">
         <v>216.2933510110464</v>
       </c>
       <c r="V12" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="W12" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28260,10 +28260,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0203721066311</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="H13" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I13" t="n">
         <v>136.4403570291208</v>
@@ -28275,43 +28275,43 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L13" t="n">
-        <v>209.9683292225058</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M13" t="n">
-        <v>79.93067970396669</v>
+        <v>211.5531004210062</v>
       </c>
       <c r="N13" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q13" t="n">
-        <v>161.9152593551795</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R13" t="n">
-        <v>138.576149682035</v>
+        <v>141.9493521121065</v>
       </c>
       <c r="S13" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T13" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U13" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="V13" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="W13" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="X13" t="n">
-        <v>220.0642436627891</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -28345,13 +28345,13 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I14" t="n">
+        <v>153.0249401179329</v>
+      </c>
+      <c r="J14" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="J14" t="n">
-        <v>107.3315132100092</v>
-      </c>
       <c r="K14" t="n">
-        <v>119.2206547955825</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="L14" t="n">
         <v>117.6182276069951</v>
@@ -28363,16 +28363,16 @@
         <v>220.0642436627892</v>
       </c>
       <c r="O14" t="n">
-        <v>119.9268088270143</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P14" t="n">
-        <v>120.4975665775689</v>
+        <v>150.2532672292143</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.0642436627892</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R14" t="n">
-        <v>220.0642436627892</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S14" t="n">
         <v>220.0642436627892</v>
@@ -28412,7 +28412,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>170.9489032745658</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28427,25 +28427,25 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J15" t="n">
-        <v>104.7610274573609</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K15" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L15" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q15" t="n">
         <v>81.73346793160957</v>
@@ -28500,37 +28500,37 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I16" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J16" t="n">
-        <v>194.8755225707677</v>
+        <v>219.9465425652923</v>
       </c>
       <c r="K16" t="n">
         <v>80.40428934589778</v>
       </c>
       <c r="L16" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M16" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.4981853689493</v>
+        <v>161.9152593551791</v>
       </c>
       <c r="R16" t="n">
-        <v>220.0642436627892</v>
+        <v>138.576149682035</v>
       </c>
       <c r="S16" t="n">
         <v>207.9098175327</v>
@@ -28585,10 +28585,10 @@
         <v>153.0249401179329</v>
       </c>
       <c r="J17" t="n">
-        <v>107.3315132100092</v>
+        <v>238.9539339270488</v>
       </c>
       <c r="K17" t="n">
-        <v>130.4496368052294</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L17" t="n">
         <v>117.6182276069951</v>
@@ -28597,25 +28597,25 @@
         <v>104.881609583326</v>
       </c>
       <c r="N17" t="n">
-        <v>234.4145392343748</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O17" t="n">
-        <v>239.6304465871595</v>
+        <v>239.6304465871597</v>
       </c>
       <c r="P17" t="n">
-        <v>120.4975665775689</v>
+        <v>241.5793277445981</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.6467887197698</v>
+        <v>261.6467887197699</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529672</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S17" t="n">
         <v>174.6794175959089</v>
       </c>
       <c r="T17" t="n">
-        <v>329.9170228201716</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U17" t="n">
         <v>252.2989982740355</v>
@@ -28667,22 +28667,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K18" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q18" t="n">
         <v>81.73346793160957</v>
@@ -28737,7 +28737,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H19" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I19" t="n">
         <v>136.4403570291208</v>
@@ -28749,19 +28749,19 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M19" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28834,25 +28834,25 @@
         <v>104.881609583326</v>
       </c>
       <c r="N20" t="n">
-        <v>234.4145392343748</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O20" t="n">
         <v>108.0080258701201</v>
       </c>
       <c r="P20" t="n">
-        <v>120.4975665775689</v>
+        <v>252.1199872946084</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.6467887197698</v>
+        <v>261.6467887197699</v>
       </c>
       <c r="R20" t="n">
-        <v>145.7301858529672</v>
+        <v>277.3526065700067</v>
       </c>
       <c r="S20" t="n">
-        <v>245.1353777217404</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T20" t="n">
-        <v>329.9170228201716</v>
+        <v>268.7505622289638</v>
       </c>
       <c r="U20" t="n">
         <v>329.9170228201716</v>
@@ -28904,22 +28904,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K21" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q21" t="n">
         <v>81.73346793160957</v>
@@ -28974,7 +28974,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H22" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I22" t="n">
         <v>136.4403570291208</v>
@@ -28986,19 +28986,19 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M22" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29053,7 +29053,7 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H23" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I23" t="n">
         <v>153.0249401179329</v>
@@ -29062,37 +29062,37 @@
         <v>107.3315132100092</v>
       </c>
       <c r="K23" t="n">
-        <v>119.2206547955825</v>
+        <v>250.843075512622</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6182276069951</v>
+        <v>161.0819642278882</v>
       </c>
       <c r="M23" t="n">
         <v>104.881609583326</v>
       </c>
       <c r="N23" t="n">
-        <v>102.7921185173354</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O23" t="n">
-        <v>239.6304465871595</v>
+        <v>239.6304465871596</v>
       </c>
       <c r="P23" t="n">
         <v>120.4975665775689</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.6467887197698</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R23" t="n">
-        <v>145.7301858529672</v>
+        <v>277.3526065700067</v>
       </c>
       <c r="S23" t="n">
-        <v>306.3018383129482</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T23" t="n">
+        <v>220.0642436627892</v>
+      </c>
+      <c r="U23" t="n">
         <v>329.9170228201716</v>
-      </c>
-      <c r="U23" t="n">
-        <v>268.7505622289644</v>
       </c>
       <c r="V23" t="n">
         <v>329.9170228201716</v>
@@ -29141,22 +29141,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K24" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q24" t="n">
         <v>81.73346793160957</v>
@@ -29211,7 +29211,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I25" t="n">
         <v>136.4403570291208</v>
@@ -29223,19 +29223,19 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M25" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I26" t="n">
-        <v>153.0249401179329</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K26" t="n">
-        <v>209.1282613130856</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L26" t="n">
-        <v>209.1282613130856</v>
+        <v>117.6182276069951</v>
       </c>
       <c r="M26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O26" t="n">
-        <v>209.1282613130856</v>
+        <v>105.2356472907902</v>
       </c>
       <c r="P26" t="n">
-        <v>33.3136525164773</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S26" t="n">
-        <v>174.6794175959089</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="27">
@@ -29375,46 +29375,46 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649258</v>
+        <v>111.0471434372959</v>
       </c>
       <c r="K27" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839743</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>115.9991670085489</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q27" t="n">
         <v>81.73346793160957</v>
       </c>
       <c r="R27" t="n">
-        <v>43.62099197830324</v>
+        <v>102.7991627330203</v>
       </c>
       <c r="S27" t="n">
         <v>146.6148367064899</v>
       </c>
       <c r="T27" t="n">
-        <v>185.7877530736877</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U27" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V27" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W27" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -29442,22 +29442,22 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>209.1282613130856</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>209.1282613130856</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I28" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J28" t="n">
-        <v>44.59700812871242</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K28" t="n">
-        <v>80.40428934589778</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>209.1282613130856</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.4981853689493</v>
+        <v>20.55233947787238</v>
       </c>
       <c r="R28" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S28" t="n">
-        <v>209.1282613130856</v>
+        <v>207.9098175327</v>
       </c>
       <c r="T28" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U28" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V28" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W28" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X28" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1282613130856</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="29">
@@ -29533,31 +29533,31 @@
         <v>209.1282613130855</v>
       </c>
       <c r="J29" t="n">
-        <v>209.1282613130855</v>
+        <v>186.5595293498438</v>
       </c>
       <c r="K29" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130855</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="N29" t="n">
-        <v>78.36815777609488</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O29" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q29" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="R29" t="n">
-        <v>209.1282613130855</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S29" t="n">
         <v>209.1282613130855</v>
@@ -29612,37 +29612,37 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649258</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.5313027642106</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130888</v>
+        <v>89.81878529211224</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834783</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>81.73346793160957</v>
       </c>
       <c r="R30" t="n">
-        <v>102.7991627330203</v>
+        <v>43.62099197830324</v>
       </c>
       <c r="S30" t="n">
         <v>146.6148367064899</v>
       </c>
       <c r="T30" t="n">
-        <v>185.7877530736877</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U30" t="n">
         <v>209.1282613130855</v>
@@ -29685,40 +29685,40 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H31" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I31" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>209.1282613130855</v>
+        <v>44.59700812871243</v>
       </c>
       <c r="K31" t="n">
         <v>80.40428934589778</v>
       </c>
       <c r="L31" t="n">
+        <v>202.663039338544</v>
+      </c>
+      <c r="M31" t="n">
         <v>209.1282613130855</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
-        <v>74.72804367531444</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.55233947787237</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R31" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S31" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T31" t="n">
         <v>209.1282613130855</v>
@@ -29767,7 +29767,7 @@
         <v>209.1282613130855</v>
       </c>
       <c r="I32" t="n">
-        <v>209.1282613130855</v>
+        <v>164.5093542998949</v>
       </c>
       <c r="J32" t="n">
         <v>209.1282613130855</v>
@@ -29776,16 +29776,16 @@
         <v>209.1282613130855</v>
       </c>
       <c r="L32" t="n">
+        <v>117.6182276069951</v>
+      </c>
+      <c r="M32" t="n">
         <v>209.1282613130855</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>209.1282613130855</v>
       </c>
       <c r="O32" t="n">
-        <v>117.6372235398808</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>209.1282613130855</v>
@@ -29852,25 +29852,25 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K33" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N33" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P33" t="n">
-        <v>115.9991670085491</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160957</v>
+        <v>136.7512655818108</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
@@ -29922,13 +29922,13 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>155.9102360382001</v>
+        <v>183.1504150814504</v>
       </c>
       <c r="I34" t="n">
-        <v>209.1282613130855</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>44.59700812871242</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K34" t="n">
         <v>80.40428934589778</v>
@@ -29937,25 +29937,25 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>79.93067970396669</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>82.78808566083806</v>
+      </c>
+      <c r="P34" t="n">
         <v>209.1282613130855</v>
       </c>
-      <c r="P34" t="n">
-        <v>142.1888801446454</v>
-      </c>
       <c r="Q34" t="n">
-        <v>20.55233947787237</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R34" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S34" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T34" t="n">
         <v>209.1282613130855</v>
@@ -30089,22 +30089,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K36" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q36" t="n">
         <v>81.73346793160957</v>
@@ -30156,13 +30156,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0203721066311</v>
+        <v>221.0545653573417</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I37" t="n">
-        <v>211.3090446507886</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J37" t="n">
         <v>88.32412184825276</v>
@@ -30171,19 +30171,19 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M37" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q37" t="n">
         <v>105.4981853689493</v>
@@ -30195,7 +30195,7 @@
         <v>207.9098175327</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9491259395436</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U37" t="n">
         <v>250.7836203105007</v>
@@ -30326,22 +30326,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K39" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q39" t="n">
         <v>81.73346793160957</v>
@@ -30396,7 +30396,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H40" t="n">
-        <v>155.9102360382001</v>
+        <v>209.9444292889108</v>
       </c>
       <c r="I40" t="n">
         <v>136.4403570291208</v>
@@ -30405,22 +30405,22 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K40" t="n">
-        <v>155.2729769675654</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M40" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O40" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
@@ -30432,7 +30432,7 @@
         <v>207.9098175327</v>
       </c>
       <c r="T40" t="n">
-        <v>229.9491259395436</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U40" t="n">
         <v>250.7836203105007</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="42">
@@ -30563,22 +30563,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K42" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q42" t="n">
         <v>81.73346793160957</v>
@@ -30633,7 +30633,7 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I43" t="n">
         <v>136.4403570291208</v>
@@ -30645,19 +30645,19 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M43" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O43" t="n">
-        <v>157.656773282506</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827529</v>
+        <v>118.4786887021424</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
@@ -30666,19 +30666,19 @@
         <v>138.576149682035</v>
       </c>
       <c r="S43" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T43" t="n">
         <v>229.9491259395436</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J44" t="n">
-        <v>250.7836203105005</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="45">
@@ -30800,22 +30800,22 @@
         <v>79.36985402649258</v>
       </c>
       <c r="K45" t="n">
-        <v>71.51350511400939</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130888</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056944</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517105</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839743</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q45" t="n">
         <v>81.73346793160957</v>
@@ -30864,13 +30864,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>204.9900416751917</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>167.0203721066311</v>
       </c>
       <c r="H46" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I46" t="n">
         <v>136.4403570291208</v>
@@ -30882,22 +30882,22 @@
         <v>80.40428934589778</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M46" t="n">
-        <v>79.93067970396669</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.4981853689493</v>
+        <v>180.3668729906171</v>
       </c>
       <c r="R46" t="n">
         <v>138.576149682035</v>
@@ -30906,16 +30906,16 @@
         <v>207.9098175327</v>
       </c>
       <c r="T46" t="n">
-        <v>250.7836203105006</v>
+        <v>229.9491259395436</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N11" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S11" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P12" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R12" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T12" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H13" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K13" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M13" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q13" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U13" t="n">
         <v>0.01146431122894941</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N14" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S14" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H15" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P15" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R15" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T15" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H16" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K16" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M16" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q16" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U16" t="n">
         <v>0.01146431122894941</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N17" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S17" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P18" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R18" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T18" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H19" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K19" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M19" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q19" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U19" t="n">
         <v>0.01146431122894941</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N20" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S20" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H21" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P21" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R21" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T21" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H22" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K22" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M22" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q22" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U22" t="n">
         <v>0.01146431122894941</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N23" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S23" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P24" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R24" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T24" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H25" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K25" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M25" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q25" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U25" t="n">
         <v>0.01146431122894941</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N26" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S26" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H27" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P27" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R27" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T27" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H28" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K28" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M28" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q28" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U28" t="n">
         <v>0.01146431122894941</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N29" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S29" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H30" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P30" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R30" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T30" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H31" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K31" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M31" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q31" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U31" t="n">
         <v>0.01146431122894941</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N32" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S32" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H33" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P33" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R33" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T33" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H34" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K34" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M34" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q34" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U34" t="n">
         <v>0.01146431122894941</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N35" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S35" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P36" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R36" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T36" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H37" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K37" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M37" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q37" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U37" t="n">
         <v>0.01146431122894941</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N38" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S38" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H39" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P39" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R39" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T39" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H40" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K40" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M40" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q40" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U40" t="n">
         <v>0.01146431122894941</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N41" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S41" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H42" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P42" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R42" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T42" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H43" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K43" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M43" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q43" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U43" t="n">
         <v>0.01146431122894941</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800086</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773639</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792342</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846419</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611952</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383312</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N44" t="n">
-        <v>83.6059956548947</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000035</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358764</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.59900502025981</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101512</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S44" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H45" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896888</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983891</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253726</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271368</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P45" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R45" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897234</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T45" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H46" t="n">
         <v>1.868682730318753</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K46" t="n">
-        <v>24.41898291766221</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M46" t="n">
         <v>32.9465197534624</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q46" t="n">
         <v>17.59962845497548</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730617</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649331</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U46" t="n">
         <v>0.01146431122894941</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.03930354485622</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>112.73273045278</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100.8435888672067</v>
       </c>
       <c r="L11" t="n">
-        <v>35.19740603517087</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>117.2721251454537</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>112.056217792669</v>
+        <v>88.30972498151996</v>
       </c>
       <c r="P11" t="n">
-        <v>99.56667708522026</v>
+        <v>99.56667708522032</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03987566005871</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>74.33405780982197</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>45.38482606688034</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35513,10 +35513,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>25.39117343086827</v>
       </c>
       <c r="T12" t="n">
-        <v>25.39117343086845</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53.04387155615813</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,10 +35586,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.41707398623026</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.373202430071584</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.03930354485631</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>112.7327304527799</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>100.8435888672066</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,22 +35656,22 @@
         <v>115.1826340794632</v>
       </c>
       <c r="N14" t="n">
-        <v>117.2721251454538</v>
+        <v>117.2721251454537</v>
       </c>
       <c r="O14" t="n">
-        <v>11.91878295689423</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>29.75570065164544</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.0398756600588</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.33405780982199</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688034</v>
+        <v>45.38482606688031</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35708,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.39117343086833</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.39117343086828</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>106.551400722515</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>56.41707398622983</v>
       </c>
       <c r="R16" t="n">
-        <v>81.48809398075426</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,16 +35875,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.222581945281387</v>
+        <v>5.222581945281386</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="K17" t="n">
-        <v>11.22898200964685</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>121.0817611670293</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>109.8527791573824</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36130,25 +36130,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="S20" t="n">
-        <v>70.4559601258316</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>109.8527791573824</v>
+        <v>48.68631856617461</v>
       </c>
       <c r="U20" t="n">
         <v>77.61802454613606</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.222581945281386</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>43.46373662089314</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,25 +36370,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>131.6224207170394</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="S23" t="n">
-        <v>131.6224207170394</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>109.8527791573824</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>16.45156395492888</v>
+        <v>77.61802454613606</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>56.10332119515265</v>
       </c>
       <c r="J26" t="n">
-        <v>101.7967481030764</v>
+        <v>101.7967481030763</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>486.5906009745429</v>
       </c>
-      <c r="L26" t="n">
-        <v>222.6299763901483</v>
-      </c>
-      <c r="M26" t="n">
-        <v>104.2466517297596</v>
-      </c>
       <c r="N26" t="n">
-        <v>106.3361427957501</v>
+        <v>486.5906009745429</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>486.5906009745429</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>355.1133811682313</v>
+        <v>125.7520403621402</v>
       </c>
       <c r="R26" t="n">
-        <v>63.39807546011834</v>
+        <v>148.8294212949955</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.44884371717667</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>31.67728941080334</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.01779765020107</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36701,7 +36701,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.34050823939781</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>58.17241288860492</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>42.10788920645449</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>15.68752875923568</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>137.5468815879012</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>132.0886987677717</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>122.6444574548102</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.218443780385597</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36829,34 +36829,34 @@
         <v>56.10332119515265</v>
       </c>
       <c r="J29" t="n">
-        <v>321.6223478267722</v>
+        <v>79.22801613983461</v>
       </c>
       <c r="K29" t="n">
-        <v>394.9640719176373</v>
+        <v>89.907606517503</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51003370609045</v>
+        <v>425.3413513085904</v>
       </c>
       <c r="M29" t="n">
         <v>486.5906009745429</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>106.3361427957501</v>
       </c>
       <c r="O29" t="n">
         <v>101.1202354429654</v>
       </c>
       <c r="P29" t="n">
-        <v>297.8407540453586</v>
+        <v>468.522166194299</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.10389331035513</v>
+        <v>79.10389331035512</v>
       </c>
       <c r="R29" t="n">
-        <v>63.39807546011831</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717668</v>
+        <v>34.44884371717667</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>55.01779765020115</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>31.67728941080334</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36938,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>23.34050823939781</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.8041394648328</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>130.7823528076192</v>
+        <v>124.3171308330776</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>129.1975816091189</v>
       </c>
       <c r="N31" t="n">
-        <v>3.14666395013003</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.218443780385567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515262</v>
+        <v>11.48441418196203</v>
       </c>
       <c r="J32" t="n">
         <v>321.6223478267722</v>
       </c>
       <c r="K32" t="n">
-        <v>119.4722399173387</v>
+        <v>486.5906009745429</v>
       </c>
       <c r="L32" t="n">
-        <v>91.51003370609043</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>479.4859839573563</v>
+        <v>104.2466517297595</v>
       </c>
       <c r="N32" t="n">
         <v>106.3361427957501</v>
       </c>
       <c r="O32" t="n">
+        <v>232.88060662519</v>
+      </c>
+      <c r="P32" t="n">
         <v>486.5906009745429</v>
       </c>
-      <c r="P32" t="n">
-        <v>88.63069473551666</v>
-      </c>
       <c r="Q32" t="n">
-        <v>79.1038933103551</v>
+        <v>79.10389331035509</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011829</v>
+        <v>63.39807546011828</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717665</v>
+        <v>34.44884371717664</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>55.01779765020124</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.24017904325021</v>
       </c>
       <c r="I34" t="n">
-        <v>72.6879042839647</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37239,19 +37239,19 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>126.3401756522475</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>55.70507628637007</v>
+        <v>122.6444574548102</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.6300759441362</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.218443780385539</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>97.75868019256778</v>
       </c>
       <c r="J35" t="n">
-        <v>143.4521071004915</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K35" t="n">
         <v>131.5629655149181</v>
       </c>
       <c r="L35" t="n">
-        <v>133.1653927035042</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M35" t="n">
         <v>145.9020107271747</v>
@@ -37318,19 +37318,19 @@
         <v>147.9915017931652</v>
       </c>
       <c r="O35" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P35" t="n">
         <v>130.2860537329318</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077688</v>
       </c>
       <c r="R35" t="n">
-        <v>105.0534344575335</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459182</v>
+        <v>76.10420271459181</v>
       </c>
       <c r="T35" t="n">
         <v>30.71937664771148</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>54.03419325071069</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>74.8686876216678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>20.8344943709571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256784</v>
+        <v>97.75868019256778</v>
       </c>
       <c r="J38" t="n">
-        <v>143.4521071004915</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K38" t="n">
-        <v>131.5629655149182</v>
+        <v>131.5629655149181</v>
       </c>
       <c r="L38" t="n">
         <v>133.1653927035056</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271748</v>
+        <v>145.9020107271733</v>
       </c>
       <c r="N38" t="n">
-        <v>147.9915017931653</v>
+        <v>147.9915017931652</v>
       </c>
       <c r="O38" t="n">
-        <v>142.7755944403787</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329319</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q38" t="n">
         <v>120.7592523077703</v>
       </c>
       <c r="R38" t="n">
-        <v>105.0534344575335</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459188</v>
+        <v>76.10420271459181</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771154</v>
+        <v>30.71937664771148</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>54.03419325071069</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>74.86868762166763</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>20.8344943709571</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256777</v>
       </c>
       <c r="J41" t="n">
         <v>143.4521071004914</v>
@@ -37783,7 +37783,7 @@
         <v>131.5629655149181</v>
       </c>
       <c r="L41" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M41" t="n">
         <v>145.9020107271747</v>
@@ -37795,19 +37795,19 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P41" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R41" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459176</v>
+        <v>76.10420271459182</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771144</v>
+        <v>30.71937664771147</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>74.86868762166797</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>31.99488484386708</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.87380277780071</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.7586801925677</v>
+        <v>97.75868019256778</v>
       </c>
       <c r="J44" t="n">
-        <v>143.4521071004912</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K44" t="n">
         <v>131.5629655149181</v>
       </c>
       <c r="L44" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035056</v>
       </c>
       <c r="M44" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N44" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403805</v>
+        <v>142.7755944403791</v>
       </c>
       <c r="P44" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R44" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459174</v>
+        <v>76.10420271459181</v>
       </c>
       <c r="T44" t="n">
-        <v>30.7193766477114</v>
+        <v>30.71937664771148</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>54.03419325071105</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>74.86868762166779</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.83449437095702</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
